--- a/pruebas_g/empty_book.xlsx
+++ b/pruebas_g/empty_book.xlsx
@@ -7,7 +7,7 @@
     <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="range names" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="ranged names" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="Pi" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Data" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
